--- a/Excel/BattleLevelConfig.xlsx
+++ b/Excel/BattleLevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>cs</t>
   </si>
@@ -31,6 +31,9 @@
     <t>准入等级范围</t>
   </si>
   <si>
+    <t>战斗胜利获取的经验值</t>
+  </si>
+  <si>
     <t>MonsterIds</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>MiniEnterLevel</t>
+  </si>
+  <si>
+    <t>RewardExp</t>
   </si>
   <si>
     <t>int</t>
@@ -123,11 +129,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -150,43 +156,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -195,19 +164,102 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -215,17 +267,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,62 +300,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,26 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,24 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +572,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -607,153 +604,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1101,13 +1107,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
@@ -1115,10 +1121,11 @@
     <col min="4" max="4" width="34.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,16 +1134,18 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1151,68 +1160,83 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="3:6">
+    </row>
+    <row r="6" ht="16.5" spans="3:7">
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:6">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:7">
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="3:6">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="3:7">
       <c r="C8" s="4">
         <v>3</v>
       </c>
@@ -1220,13 +1244,16 @@
         <v>1004</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="3:6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="3:7">
       <c r="C9" s="4">
         <v>4</v>
       </c>
@@ -1234,13 +1261,16 @@
         <v>1005</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="3:6">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="3:7">
       <c r="C10" s="4">
         <v>5</v>
       </c>
@@ -1248,13 +1278,16 @@
         <v>1006</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="3:6">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="3:7">
       <c r="C11" s="4">
         <v>6</v>
       </c>
@@ -1262,13 +1295,16 @@
         <v>1007</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="3:6">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="3:7">
       <c r="C12" s="4">
         <v>7</v>
       </c>
@@ -1276,13 +1312,16 @@
         <v>1008</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="3:6">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="3:7">
       <c r="C13" s="4">
         <v>8</v>
       </c>
@@ -1290,13 +1329,16 @@
         <v>1009</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="3:6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="3:7">
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -1304,13 +1346,16 @@
         <v>1010</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="3:6">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="3:7">
       <c r="C15" s="4">
         <v>10</v>
       </c>
@@ -1318,13 +1363,16 @@
         <v>1011</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="8">
         <v>90100</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" spans="3:6">
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="3:7">
       <c r="C16" s="4">
         <v>11</v>
       </c>
@@ -1332,13 +1380,16 @@
         <v>1012</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="8">
         <v>100110</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="3:6">
+      <c r="G16" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="3:7">
       <c r="C17" s="4">
         <v>12</v>
       </c>
@@ -1346,41 +1397,49 @@
         <v>1013</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="8">
         <v>110120</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" spans="3:6">
+      <c r="G17" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="3:7">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" ht="16.5" spans="3:6">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="16.5" spans="3:7">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" ht="16.5" spans="3:6">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="16.5" spans="3:7">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" ht="16.5" spans="3:6">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="16.5" spans="3:7">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" ht="16.5" spans="3:6">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="16.5" spans="3:7">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="9"/>
